--- a/biology/Botanique/Clerodendrum_volubile/Clerodendrum_volubile.xlsx
+++ b/biology/Botanique/Clerodendrum_volubile/Clerodendrum_volubile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clerodendrum volubile est une espèce d'arbustes grimpants de la famille des Lamiacées, indigène à l'Afrique de l'Ouest, présente surtout au sud-ouest du Nigeria[2]. Les noms communs sont marugno, eweta, obnettete[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clerodendrum volubile est une espèce d'arbustes grimpants de la famille des Lamiacées, indigène à l'Afrique de l'Ouest, présente surtout au sud-ouest du Nigeria. Les noms communs sont marugno, eweta, obnettete.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clerodendrum volubile est un arbuste qui peut mesurer jusqu'à 3 m de haut, avec plusieurs fleurs de couleur rouge et une longueur de 1,5 cm[pas clair]. Les feuilles sont simples et lancéolées avec une surface glabre. Le limbe a une taille de 10 x 3.2 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clerodendrum volubile est un arbuste qui peut mesurer jusqu'à 3 m de haut, avec plusieurs fleurs de couleur rouge et une longueur de 1,5 cm[pas clair]. Les feuilles sont simples et lancéolées avec une surface glabre. Le limbe a une taille de 10 x 3.2 cm.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sud-ouest de Nigeria les feuilles fraîches et séchées de Clerodendrum volubile sont utilisées comme légume aromatique, associées à d'autres légumes. Lorsqu'elles sont ajoutées à une sauce, les feuilles prennent une couleur sombre[3].
-Les feuilles sont utilisées aussi en médecine traditionnelle contre les inflammations, la goutte, l'arthrite, le rhumatisme et les maladies vénériennes. Des recherches sur Clerodendrum volubile ont relevé que les feuilles contenaient des flavonoïdes, des tanins, des saponines, des alcaloïdes, des glycosides cardiotoniques et des anthraquinones[2].
-Clerodendrum volubile est plantée aussi comme plante ornementale et utilisée comme délicatesse pendant les occasions spéciales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sud-ouest de Nigeria les feuilles fraîches et séchées de Clerodendrum volubile sont utilisées comme légume aromatique, associées à d'autres légumes. Lorsqu'elles sont ajoutées à une sauce, les feuilles prennent une couleur sombre.
+Les feuilles sont utilisées aussi en médecine traditionnelle contre les inflammations, la goutte, l'arthrite, le rhumatisme et les maladies vénériennes. Des recherches sur Clerodendrum volubile ont relevé que les feuilles contenaient des flavonoïdes, des tanins, des saponines, des alcaloïdes, des glycosides cardiotoniques et des anthraquinones.
+Clerodendrum volubile est plantée aussi comme plante ornementale et utilisée comme délicatesse pendant les occasions spéciales.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (24 juillet 2017)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (24 juillet 2017) :
 variété Clerodendrum volubile var. grossiserratum Moldenke</t>
         </is>
       </c>
